--- a/ipc-webscraping/data/processed/tailoy/2025-11-08/tailoy_consolidado_2025-11-08_clean_filt.xlsx
+++ b/ipc-webscraping/data/processed/tailoy/2025-11-08/tailoy_consolidado_2025-11-08_clean_filt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1254"/>
+  <dimension ref="A1:P1244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82558,240 +82558,240 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1174" t="n">
-        <v>16597003</v>
+        <v>23144</v>
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>Portaminas Pilot H-165 0.5 Mm Negro</t>
+          <t>Goma En Barra Ove 21 G</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1174" t="n">
-        <v>7.6</v>
+        <v>1.8</v>
       </c>
       <c r="I1174" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J1174" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1174" t="n">
         <v>1</v>
       </c>
       <c r="L1174" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M1174" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1174" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1174" t="n">
-        <v>7.6</v>
+        <v>0.857143</v>
       </c>
       <c r="P1174" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1175" t="n">
-        <v>12794</v>
+        <v>23145</v>
       </c>
       <c r="F1175" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm 2B Stabilo Blíster X 3 Und</t>
+          <t>Goma En Barra Ove 36 G</t>
         </is>
       </c>
       <c r="G1175" t="inlineStr">
         <is>
-          <t>STABILO</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1175" t="n">
-        <v>8.6</v>
+        <v>3.1</v>
       </c>
       <c r="I1175" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J1175" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1175" t="n">
         <v>1</v>
       </c>
       <c r="L1175" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="M1175" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>36 g</t>
         </is>
       </c>
       <c r="N1175" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1175" t="n">
-        <v>2.866667</v>
+        <v>0.861111</v>
       </c>
       <c r="P1175" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1176" t="n">
-        <v>16597001</v>
+        <v>33568</v>
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>Portaminas Pilot H-165 0.5 Mm Azul</t>
+          <t>Cola Sintética Ove Con Aplicador 60 Ml</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1176" t="n">
-        <v>7.6</v>
+        <v>1.3</v>
       </c>
       <c r="I1176" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J1176" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="K1176" t="n">
         <v>1</v>
       </c>
       <c r="L1176" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="M1176" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>60 ml</t>
         </is>
       </c>
       <c r="N1176" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="O1176" t="n">
-        <v>7.6</v>
+        <v>2.166667</v>
       </c>
       <c r="P1176" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>líquidos → por 100 ml</t>
         </is>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1177" t="n">
-        <v>16211007</v>
+        <v>806</v>
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm Hb Faber Castell X 24 Und</t>
+          <t>Goma En Barra Faber Castell 10 G</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
@@ -82800,458 +82800,458 @@
         </is>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="I1177" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J1177" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1177" t="n">
         <v>1</v>
       </c>
       <c r="L1177" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M1177" t="inlineStr">
         <is>
-          <t>X 24 und</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="N1177" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1177" t="n">
-        <v>0.083333</v>
+        <v>1.3</v>
       </c>
       <c r="P1177" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1178" t="n">
-        <v>38313</v>
+        <v>2035</v>
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>Minas 0.7 Mm 2B Pilot Eno-7 X 3 Und</t>
+          <t>Cola Artesco Con Aplicador 57 G</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1178" t="n">
-        <v>15.6</v>
+        <v>2.1</v>
       </c>
       <c r="I1178" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J1178" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1178" t="n">
         <v>1</v>
       </c>
       <c r="L1178" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="M1178" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>57 g</t>
         </is>
       </c>
       <c r="N1178" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1178" t="n">
-        <v>5.2</v>
+        <v>3.684211</v>
       </c>
       <c r="P1178" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1179" t="n">
-        <v>16211001</v>
+        <v>2173</v>
       </c>
       <c r="F1179" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm 2B Faber Castell X 24 Und</t>
+          <t>Goma En Barra Artesco 21 G</t>
         </is>
       </c>
       <c r="G1179" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="I1179" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J1179" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1179" t="n">
         <v>1</v>
       </c>
       <c r="L1179" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M1179" t="inlineStr">
         <is>
-          <t>X 24 und</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1179" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1179" t="n">
-        <v>0.083333</v>
+        <v>1.095238</v>
       </c>
       <c r="P1179" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1180" t="n">
-        <v>12795</v>
+        <v>39939</v>
       </c>
       <c r="F1180" t="inlineStr">
         <is>
-          <t>Minas 0.7 Mm 2B Stabilo Blíster X 3 Und</t>
+          <t>Goma En Barra Artesco Power Stick 40 G</t>
         </is>
       </c>
       <c r="G1180" t="inlineStr">
         <is>
-          <t>STABILO</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1180" t="n">
-        <v>9.9</v>
+        <v>5.3</v>
       </c>
       <c r="I1180" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J1180" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1180" t="n">
         <v>1</v>
       </c>
       <c r="L1180" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M1180" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>40 g</t>
         </is>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1180" t="n">
-        <v>3.3</v>
+        <v>1.325</v>
       </c>
       <c r="P1180" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1181" t="n">
-        <v>38312</v>
+        <v>74665</v>
       </c>
       <c r="F1181" t="inlineStr">
         <is>
-          <t>Minas 0.5 Mm 2B Pilot Eno-5 X 3 Und</t>
+          <t>Goma En Barra Artesco Neón 21 G</t>
         </is>
       </c>
       <c r="G1181" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1181" t="n">
-        <v>15.4</v>
+        <v>2.9</v>
       </c>
       <c r="I1181" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1181" t="n">
         <v>1</v>
       </c>
       <c r="L1181" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M1181" t="inlineStr">
         <is>
-          <t>X 3 und</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1181" t="n">
-        <v>5.133333</v>
+        <v>1.380952</v>
       </c>
       <c r="P1181" t="inlineStr">
         <is>
-          <t>x und | tipo_producto=MINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1182" t="n">
-        <v>16597002</v>
+        <v>6649</v>
       </c>
       <c r="F1182" t="inlineStr">
         <is>
-          <t>Portaminas Pilot H-165 0.5 Mm Gris</t>
+          <t>Goma En Barra Vinifan 40 G</t>
         </is>
       </c>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>PILOT</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1182" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="I1182" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J1182" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1182" t="n">
         <v>1</v>
       </c>
       <c r="L1182" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M1182" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>40 g</t>
         </is>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1182" t="n">
-        <v>7.6</v>
+        <v>0.95</v>
       </c>
       <c r="P1182" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>oficina</t>
+          <t>escolar</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>utiles</t>
+          <t>cintas-y-pegamentos</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>gomas-siliconas-y-colas</t>
         </is>
       </c>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>portaminas-y-minas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1183" t="n">
-        <v>1493</v>
+        <v>29702</v>
       </c>
       <c r="F1183" t="inlineStr">
         <is>
-          <t>Portaminas Faber Castell Grip-Matic 0.5 Mm Surtido</t>
+          <t>Cola Vinifan 250 G</t>
         </is>
       </c>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1183" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="I1183" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="J1183" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1183" t="n">
         <v>1</v>
       </c>
       <c r="L1183" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="M1183" t="inlineStr">
         <is>
-          <t>Unidad</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
-          <t>und</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1183" t="n">
-        <v>4.9</v>
+        <v>1.24</v>
       </c>
       <c r="P1183" t="inlineStr">
         <is>
-          <t>Cantidad=1, sin conversión | tipo_producto=PORTAMINAS</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -83273,27 +83273,27 @@
       </c>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1184" t="n">
-        <v>23144</v>
+        <v>318</v>
       </c>
       <c r="F1184" t="inlineStr">
         <is>
-          <t>Goma En Barra Ove 21 G</t>
+          <t>Cola David 1/4 Kg</t>
         </is>
       </c>
       <c r="G1184" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="H1184" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="I1184" t="n">
-        <v>21</v>
+        <v>4000</v>
       </c>
       <c r="J1184" t="inlineStr">
         <is>
@@ -83304,24 +83304,24 @@
         <v>1</v>
       </c>
       <c r="L1184" t="n">
-        <v>21</v>
+        <v>4000</v>
       </c>
       <c r="M1184" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>4000 g</t>
         </is>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1184" t="n">
-        <v>0.857143</v>
+        <v>0.0625</v>
       </c>
       <c r="P1184" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -83347,23 +83347,23 @@
         </is>
       </c>
       <c r="E1185" t="n">
-        <v>23145</v>
+        <v>3335</v>
       </c>
       <c r="F1185" t="inlineStr">
         <is>
-          <t>Goma En Barra Ove 36 G</t>
+          <t>Goma En Barra Artesco 40 G</t>
         </is>
       </c>
       <c r="G1185" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1185" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I1185" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J1185" t="inlineStr">
         <is>
@@ -83374,11 +83374,11 @@
         <v>1</v>
       </c>
       <c r="L1185" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M1185" t="inlineStr">
         <is>
-          <t>36 g</t>
+          <t>40 g</t>
         </is>
       </c>
       <c r="N1185" t="inlineStr">
@@ -83387,7 +83387,7 @@
         </is>
       </c>
       <c r="O1185" t="n">
-        <v>0.861111</v>
+        <v>0.975</v>
       </c>
       <c r="P1185" t="inlineStr">
         <is>
@@ -83417,51 +83417,51 @@
         </is>
       </c>
       <c r="E1186" t="n">
-        <v>33568</v>
+        <v>28823</v>
       </c>
       <c r="F1186" t="inlineStr">
         <is>
-          <t>Cola Sintética Ove Con Aplicador 60 Ml</t>
+          <t>Cola Artesco Con Aplicador 250 G</t>
         </is>
       </c>
       <c r="G1186" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1186" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="I1186" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="J1186" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1186" t="n">
         <v>1</v>
       </c>
       <c r="L1186" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="M1186" t="inlineStr">
         <is>
-          <t>60 ml</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1186" t="n">
-        <v>2.166667</v>
+        <v>1.24</v>
       </c>
       <c r="P1186" t="inlineStr">
         <is>
-          <t>líquidos → por 100 ml</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -83487,23 +83487,23 @@
         </is>
       </c>
       <c r="E1187" t="n">
-        <v>806</v>
+        <v>74667</v>
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell 10 G</t>
+          <t>Goma En Barra Artesco Frutti 21 G</t>
         </is>
       </c>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1187" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="I1187" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J1187" t="inlineStr">
         <is>
@@ -83514,11 +83514,11 @@
         <v>1</v>
       </c>
       <c r="L1187" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M1187" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1187" t="inlineStr">
@@ -83527,7 +83527,7 @@
         </is>
       </c>
       <c r="O1187" t="n">
-        <v>1.3</v>
+        <v>1.285714</v>
       </c>
       <c r="P1187" t="inlineStr">
         <is>
@@ -83557,23 +83557,23 @@
         </is>
       </c>
       <c r="E1188" t="n">
-        <v>2035</v>
+        <v>2267</v>
       </c>
       <c r="F1188" t="inlineStr">
         <is>
-          <t>Cola Artesco Con Aplicador 57 G</t>
+          <t>Cola Layconsa Con Aplicador 250 G</t>
         </is>
       </c>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>LAYCONSA</t>
         </is>
       </c>
       <c r="H1188" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="I1188" t="n">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="J1188" t="inlineStr">
         <is>
@@ -83584,11 +83584,11 @@
         <v>1</v>
       </c>
       <c r="L1188" t="n">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="M1188" t="inlineStr">
         <is>
-          <t>57 g</t>
+          <t>250 g</t>
         </is>
       </c>
       <c r="N1188" t="inlineStr">
@@ -83597,7 +83597,7 @@
         </is>
       </c>
       <c r="O1188" t="n">
-        <v>3.684211</v>
+        <v>1.24</v>
       </c>
       <c r="P1188" t="inlineStr">
         <is>
@@ -83627,11 +83627,11 @@
         </is>
       </c>
       <c r="E1189" t="n">
-        <v>2173</v>
+        <v>25131</v>
       </c>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco 21 G</t>
+          <t>Goma En Barra Artesco Triangular Sticky Magic 25 G</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
@@ -83640,10 +83640,10 @@
         </is>
       </c>
       <c r="H1189" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="I1189" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J1189" t="inlineStr">
         <is>
@@ -83654,11 +83654,11 @@
         <v>1</v>
       </c>
       <c r="L1189" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M1189" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>25 g</t>
         </is>
       </c>
       <c r="N1189" t="inlineStr">
@@ -83667,7 +83667,7 @@
         </is>
       </c>
       <c r="O1189" t="n">
-        <v>1.095238</v>
+        <v>1.64</v>
       </c>
       <c r="P1189" t="inlineStr">
         <is>
@@ -83693,27 +83693,27 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1190" t="n">
-        <v>39939</v>
+        <v>50503</v>
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Power Stick 40 G</t>
+          <t>Cola Faber Castell Pegabien Con Aplicador 225 G</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1190" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="I1190" t="n">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="J1190" t="inlineStr">
         <is>
@@ -83724,24 +83724,24 @@
         <v>1</v>
       </c>
       <c r="L1190" t="n">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="M1190" t="inlineStr">
         <is>
-          <t>40 g</t>
+          <t>225 g</t>
         </is>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1190" t="n">
-        <v>1.325</v>
+        <v>1.022222</v>
       </c>
       <c r="P1190" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -83767,20 +83767,20 @@
         </is>
       </c>
       <c r="E1191" t="n">
-        <v>74665</v>
+        <v>211</v>
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Neón 21 G</t>
+          <t>Goma En Barra Uhu Stick 21 G</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>UHU</t>
         </is>
       </c>
       <c r="H1191" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="I1191" t="n">
         <v>21</v>
@@ -83807,7 +83807,7 @@
         </is>
       </c>
       <c r="O1191" t="n">
-        <v>1.380952</v>
+        <v>3.285714</v>
       </c>
       <c r="P1191" t="inlineStr">
         <is>
@@ -83837,20 +83837,20 @@
         </is>
       </c>
       <c r="E1192" t="n">
-        <v>6649</v>
+        <v>753</v>
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>Goma En Barra Vinifan 40 G</t>
+          <t>Goma En Barra Uhu Stick 40 G</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>UHU</t>
         </is>
       </c>
       <c r="H1192" t="n">
-        <v>3.8</v>
+        <v>9.4</v>
       </c>
       <c r="I1192" t="n">
         <v>40</v>
@@ -83877,7 +83877,7 @@
         </is>
       </c>
       <c r="O1192" t="n">
-        <v>0.95</v>
+        <v>2.35</v>
       </c>
       <c r="P1192" t="inlineStr">
         <is>
@@ -83907,27 +83907,27 @@
         </is>
       </c>
       <c r="E1193" t="n">
-        <v>29702</v>
+        <v>33570</v>
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>Cola Vinifan 250 G</t>
+          <t>Cola Sintética Ove 250 Ml</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1193" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="I1193" t="n">
         <v>250</v>
       </c>
       <c r="J1193" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="K1193" t="n">
@@ -83938,20 +83938,20 @@
       </c>
       <c r="M1193" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>250 ml</t>
         </is>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="O1193" t="n">
-        <v>1.24</v>
+        <v>0.92</v>
       </c>
       <c r="P1193" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>líquidos → por 100 ml</t>
         </is>
       </c>
     </row>
@@ -83973,27 +83973,27 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1194" t="n">
-        <v>318</v>
+        <v>63146</v>
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>Cola David 1/4 Kg</t>
+          <t>Goma En Barra Faber Castell Fix 21 G</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1194" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I1194" t="n">
-        <v>4000</v>
+        <v>21</v>
       </c>
       <c r="J1194" t="inlineStr">
         <is>
@@ -84004,24 +84004,24 @@
         <v>1</v>
       </c>
       <c r="L1194" t="n">
-        <v>4000</v>
+        <v>21</v>
       </c>
       <c r="M1194" t="inlineStr">
         <is>
-          <t>4000 g</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1194" t="n">
-        <v>0.0625</v>
+        <v>1.047619</v>
       </c>
       <c r="P1194" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
@@ -84047,20 +84047,20 @@
         </is>
       </c>
       <c r="E1195" t="n">
-        <v>3335</v>
+        <v>55463</v>
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco 40 G</t>
+          <t>Goma En Barra Faber Castell 40 G</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1195" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I1195" t="n">
         <v>40</v>
@@ -84087,7 +84087,7 @@
         </is>
       </c>
       <c r="O1195" t="n">
-        <v>0.975</v>
+        <v>0.95</v>
       </c>
       <c r="P1195" t="inlineStr">
         <is>
@@ -84113,27 +84113,27 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1196" t="n">
-        <v>28823</v>
+        <v>210</v>
       </c>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>Cola Artesco Con Aplicador 250 G</t>
+          <t>Goma En Barra Uhu Stick 8 G</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>UHU</t>
         </is>
       </c>
       <c r="H1196" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I1196" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="J1196" t="inlineStr">
         <is>
@@ -84144,24 +84144,24 @@
         <v>1</v>
       </c>
       <c r="L1196" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="M1196" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>8 g</t>
         </is>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1196" t="n">
-        <v>1.24</v>
+        <v>4.5</v>
       </c>
       <c r="P1196" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
@@ -84183,15 +84183,15 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1197" t="n">
-        <v>74667</v>
+        <v>2488</v>
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Frutti 21 G</t>
+          <t>Cola Artesco Sticky Con Aplicador 85 G</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -84200,10 +84200,10 @@
         </is>
       </c>
       <c r="H1197" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="I1197" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="J1197" t="inlineStr">
         <is>
@@ -84214,24 +84214,24 @@
         <v>1</v>
       </c>
       <c r="L1197" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="M1197" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>85 g</t>
         </is>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1197" t="n">
-        <v>1.285714</v>
+        <v>2.588235</v>
       </c>
       <c r="P1197" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84257,20 +84257,20 @@
         </is>
       </c>
       <c r="E1198" t="n">
-        <v>2267</v>
+        <v>2612</v>
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>Cola Layconsa Con Aplicador 250 G</t>
+          <t>Cola Pegafan Con Aplicador 250 G</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
         <is>
-          <t>LAYCONSA</t>
+          <t>PEGAFAN</t>
         </is>
       </c>
       <c r="H1198" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I1198" t="n">
         <v>250</v>
@@ -84297,7 +84297,7 @@
         </is>
       </c>
       <c r="O1198" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="P1198" t="inlineStr">
         <is>
@@ -84323,27 +84323,27 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1199" t="n">
-        <v>25131</v>
+        <v>29701</v>
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Triangular Sticky Magic 25 G</t>
+          <t>Cola Vinifan 120 G</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1199" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="I1199" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="J1199" t="inlineStr">
         <is>
@@ -84354,24 +84354,24 @@
         <v>1</v>
       </c>
       <c r="L1199" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="M1199" t="inlineStr">
         <is>
-          <t>25 g</t>
+          <t>120 g</t>
         </is>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1199" t="n">
-        <v>1.64</v>
+        <v>1.833333</v>
       </c>
       <c r="P1199" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84397,51 +84397,51 @@
         </is>
       </c>
       <c r="E1200" t="n">
-        <v>50503</v>
+        <v>33569</v>
       </c>
       <c r="F1200" t="inlineStr">
         <is>
-          <t>Cola Faber Castell Pegabien Con Aplicador 225 G</t>
+          <t>Cola Sintética Ove 125 Ml</t>
         </is>
       </c>
       <c r="G1200" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1200" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="I1200" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="J1200" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>ml</t>
         </is>
       </c>
       <c r="K1200" t="n">
         <v>1</v>
       </c>
       <c r="L1200" t="n">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="M1200" t="inlineStr">
         <is>
-          <t>225 g</t>
+          <t>125 ml</t>
         </is>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>100ml</t>
         </is>
       </c>
       <c r="O1200" t="n">
-        <v>1.022222</v>
+        <v>1.36</v>
       </c>
       <c r="P1200" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>líquidos → por 100 ml</t>
         </is>
       </c>
     </row>
@@ -84467,23 +84467,23 @@
         </is>
       </c>
       <c r="E1201" t="n">
-        <v>211</v>
+        <v>74666</v>
       </c>
       <c r="F1201" t="inlineStr">
         <is>
-          <t>Goma En Barra Uhu Stick 21 G</t>
+          <t>Goma En Barra Artesco Frutti 8 G X 4 Und</t>
         </is>
       </c>
       <c r="G1201" t="inlineStr">
         <is>
-          <t>UHU</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1201" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="I1201" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J1201" t="inlineStr">
         <is>
@@ -84491,14 +84491,14 @@
         </is>
       </c>
       <c r="K1201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L1201" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M1201" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>4 x 8 g</t>
         </is>
       </c>
       <c r="N1201" t="inlineStr">
@@ -84507,7 +84507,7 @@
         </is>
       </c>
       <c r="O1201" t="n">
-        <v>3.285714</v>
+        <v>2.5</v>
       </c>
       <c r="P1201" t="inlineStr">
         <is>
@@ -84537,23 +84537,23 @@
         </is>
       </c>
       <c r="E1202" t="n">
-        <v>753</v>
+        <v>65703</v>
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>Goma En Barra Uhu Stick 40 G</t>
+          <t>Goma En Barra Faber Castell Verde Pastel 10 G</t>
         </is>
       </c>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>UHU</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1202" t="n">
-        <v>9.4</v>
+        <v>1.6</v>
       </c>
       <c r="I1202" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J1202" t="inlineStr">
         <is>
@@ -84564,11 +84564,11 @@
         <v>1</v>
       </c>
       <c r="L1202" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M1202" t="inlineStr">
         <is>
-          <t>40 g</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="N1202" t="inlineStr">
@@ -84577,7 +84577,7 @@
         </is>
       </c>
       <c r="O1202" t="n">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="P1202" t="inlineStr">
         <is>
@@ -84603,55 +84603,55 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1203" t="n">
-        <v>33570</v>
+        <v>6648</v>
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>Cola Sintética Ove 250 Ml</t>
+          <t>Goma En Barra Vinifan 21 G</t>
         </is>
       </c>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>VINIFAN</t>
         </is>
       </c>
       <c r="H1203" t="n">
         <v>2.3</v>
       </c>
       <c r="I1203" t="n">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="J1203" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1203" t="n">
         <v>1</v>
       </c>
       <c r="L1203" t="n">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="M1203" t="inlineStr">
         <is>
-          <t>250 ml</t>
+          <t>21 g</t>
         </is>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1203" t="n">
-        <v>0.92</v>
+        <v>1.095238</v>
       </c>
       <c r="P1203" t="inlineStr">
         <is>
-          <t>líquidos → por 100 ml</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
@@ -84673,27 +84673,27 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1204" t="n">
-        <v>63146</v>
+        <v>320</v>
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell Fix 21 G</t>
+          <t>Cola David 1 Kg</t>
         </is>
       </c>
       <c r="G1204" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>DAVID</t>
         </is>
       </c>
       <c r="H1204" t="n">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="I1204" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="J1204" t="inlineStr">
         <is>
@@ -84704,24 +84704,24 @@
         <v>1</v>
       </c>
       <c r="L1204" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="M1204" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>1000 g</t>
         </is>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1204" t="n">
-        <v>1.047619</v>
+        <v>1</v>
       </c>
       <c r="P1204" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84743,27 +84743,27 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1205" t="n">
-        <v>55463</v>
+        <v>1566</v>
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell 40 G</t>
+          <t>Cola Pegafan 200 G</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>PEGAFAN</t>
         </is>
       </c>
       <c r="H1205" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I1205" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="J1205" t="inlineStr">
         <is>
@@ -84774,24 +84774,24 @@
         <v>1</v>
       </c>
       <c r="L1205" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="M1205" t="inlineStr">
         <is>
-          <t>40 g</t>
+          <t>200 g</t>
         </is>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1205" t="n">
-        <v>0.95</v>
+        <v>1.85</v>
       </c>
       <c r="P1205" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84813,27 +84813,27 @@
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>colas</t>
         </is>
       </c>
       <c r="E1206" t="n">
-        <v>210</v>
+        <v>2034</v>
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>Goma En Barra Uhu Stick 8 G</t>
+          <t>Cola Artesco Con Aplicador 240 G</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
         <is>
-          <t>UHU</t>
+          <t>ARTESCO</t>
         </is>
       </c>
       <c r="H1206" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="I1206" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="J1206" t="inlineStr">
         <is>
@@ -84844,24 +84844,24 @@
         <v>1</v>
       </c>
       <c r="L1206" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M1206" t="inlineStr">
         <is>
-          <t>8 g</t>
+          <t>240 g</t>
         </is>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="O1206" t="n">
-        <v>4.5</v>
+        <v>1.083333</v>
       </c>
       <c r="P1206" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>adhesivo → por 100 g</t>
         </is>
       </c>
     </row>
@@ -84887,23 +84887,23 @@
         </is>
       </c>
       <c r="E1207" t="n">
-        <v>2488</v>
+        <v>3367</v>
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>Cola Artesco Sticky Con Aplicador 85 G</t>
+          <t>Cola Pegafan Con Aplicador 130 G</t>
         </is>
       </c>
       <c r="G1207" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>PEGAFAN</t>
         </is>
       </c>
       <c r="H1207" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I1207" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="J1207" t="inlineStr">
         <is>
@@ -84914,11 +84914,11 @@
         <v>1</v>
       </c>
       <c r="L1207" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="M1207" t="inlineStr">
         <is>
-          <t>85 g</t>
+          <t>130 g</t>
         </is>
       </c>
       <c r="N1207" t="inlineStr">
@@ -84927,7 +84927,7 @@
         </is>
       </c>
       <c r="O1207" t="n">
-        <v>2.588235</v>
+        <v>1.923077</v>
       </c>
       <c r="P1207" t="inlineStr">
         <is>
@@ -84953,27 +84953,27 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1208" t="n">
-        <v>2612</v>
+        <v>23143</v>
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>Cola Pegafan Con Aplicador 250 G</t>
+          <t>Goma En Barra Ove 8 G</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
         <is>
-          <t>PEGAFAN</t>
+          <t>OVE</t>
         </is>
       </c>
       <c r="H1208" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="I1208" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="J1208" t="inlineStr">
         <is>
@@ -84984,24 +84984,24 @@
         <v>1</v>
       </c>
       <c r="L1208" t="n">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="M1208" t="inlineStr">
         <is>
-          <t>250 g</t>
+          <t>8 g</t>
         </is>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1208" t="n">
-        <v>1.4</v>
+        <v>1.375</v>
       </c>
       <c r="P1208" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
@@ -85027,11 +85027,11 @@
         </is>
       </c>
       <c r="E1209" t="n">
-        <v>29701</v>
+        <v>29700</v>
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>Cola Vinifan 120 G</t>
+          <t>Cola Vinifan 60 G</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -85040,10 +85040,10 @@
         </is>
       </c>
       <c r="H1209" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="I1209" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="J1209" t="inlineStr">
         <is>
@@ -85054,11 +85054,11 @@
         <v>1</v>
       </c>
       <c r="L1209" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M1209" t="inlineStr">
         <is>
-          <t>120 g</t>
+          <t>60 g</t>
         </is>
       </c>
       <c r="N1209" t="inlineStr">
@@ -85067,7 +85067,7 @@
         </is>
       </c>
       <c r="O1209" t="n">
-        <v>1.833333</v>
+        <v>3.333333</v>
       </c>
       <c r="P1209" t="inlineStr">
         <is>
@@ -85093,755 +85093,755 @@
       </c>
       <c r="D1210" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>gomas</t>
         </is>
       </c>
       <c r="E1210" t="n">
-        <v>33569</v>
+        <v>65702</v>
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>Cola Sintética Ove 125 Ml</t>
+          <t>Goma En Barra Faber Castell Rosa Pastel 10 G</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>FABER CASTELL</t>
         </is>
       </c>
       <c r="H1210" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="I1210" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>g</t>
         </is>
       </c>
       <c r="K1210" t="n">
         <v>1</v>
       </c>
       <c r="L1210" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="M1210" t="inlineStr">
         <is>
-          <t>125 ml</t>
+          <t>10 g</t>
         </is>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
-          <t>100ml</t>
+          <t>10g</t>
         </is>
       </c>
       <c r="O1210" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="P1210" t="inlineStr">
         <is>
-          <t>líquidos → por 100 ml</t>
+          <t>goma en barra → por 10 g</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1211" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1211" t="n">
-        <v>74666</v>
+        <v>540</v>
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>Goma En Barra Artesco Frutti 8 G X 4 Und</t>
+          <t>Calculadora Casio Mx-12S 12 Dígitos</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1211" t="n">
-        <v>8</v>
+        <v>30.9</v>
       </c>
       <c r="I1211" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1211" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L1211" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M1211" t="inlineStr">
         <is>
-          <t>4 x 8 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1211" t="n">
-        <v>2.5</v>
+        <v>30.9</v>
       </c>
       <c r="P1211" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1212" t="n">
-        <v>65703</v>
+        <v>1003</v>
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell Verde Pastel 10 G</t>
+          <t>Calculadora Científica Casio Fx-82Ms-2</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1212" t="n">
-        <v>1.6</v>
+        <v>53.9</v>
       </c>
       <c r="I1212" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J1212" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1212" t="n">
         <v>1</v>
       </c>
       <c r="L1212" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M1212" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1212" t="n">
-        <v>1.6</v>
+        <v>53.9</v>
       </c>
       <c r="P1212" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1213" t="n">
-        <v>6648</v>
+        <v>1027</v>
       </c>
       <c r="F1213" t="inlineStr">
         <is>
-          <t>Goma En Barra Vinifan 21 G</t>
+          <t>Calculadora De Escritorio Casio Ms-80S/B/F</t>
         </is>
       </c>
       <c r="G1213" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1213" t="n">
-        <v>2.3</v>
+        <v>42.9</v>
       </c>
       <c r="I1213" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J1213" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1213" t="n">
         <v>1</v>
       </c>
       <c r="L1213" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="M1213" t="inlineStr">
         <is>
-          <t>21 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1213" t="n">
-        <v>1.095238</v>
+        <v>42.9</v>
       </c>
       <c r="P1213" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1214" t="n">
-        <v>320</v>
+        <v>4936</v>
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>Cola David 1 Kg</t>
+          <t>Calculadora Casio Mx-8B 8 Dígitos</t>
         </is>
       </c>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>DAVID</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1214" t="n">
-        <v>10</v>
+        <v>25.9</v>
       </c>
       <c r="I1214" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="J1214" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1214" t="n">
         <v>1</v>
       </c>
       <c r="L1214" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="M1214" t="inlineStr">
         <is>
-          <t>1000 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1214" t="n">
-        <v>1</v>
+        <v>25.9</v>
       </c>
       <c r="P1214" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1215" t="n">
-        <v>1566</v>
+        <v>7674</v>
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>Cola Pegafan 200 G</t>
+          <t>Calculadora Científica Casio Fx-991La Plus</t>
         </is>
       </c>
       <c r="G1215" t="inlineStr">
         <is>
-          <t>PEGAFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1215" t="n">
-        <v>3.7</v>
+        <v>110.9</v>
       </c>
       <c r="I1215" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="J1215" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1215" t="n">
         <v>1</v>
       </c>
       <c r="L1215" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="M1215" t="inlineStr">
         <is>
-          <t>200 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1215" t="n">
-        <v>1.85</v>
+        <v>110.9</v>
       </c>
       <c r="P1215" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1216" t="n">
-        <v>2034</v>
+        <v>44596001</v>
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>Cola Artesco Con Aplicador 240 G</t>
+          <t>Calculadora Casio Ms-7Uc Azul</t>
         </is>
       </c>
       <c r="G1216" t="inlineStr">
         <is>
-          <t>ARTESCO</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1216" t="n">
-        <v>2.6</v>
+        <v>29.9</v>
       </c>
       <c r="I1216" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="J1216" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1216" t="n">
         <v>1</v>
       </c>
       <c r="L1216" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="M1216" t="inlineStr">
         <is>
-          <t>240 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1216" t="n">
-        <v>1.083333</v>
+        <v>29.9</v>
       </c>
       <c r="P1216" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1217" t="n">
-        <v>3367</v>
+        <v>44596002</v>
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>Cola Pegafan Con Aplicador 130 G</t>
+          <t>Calculadora Casio Ms-7Uc-Pk Rosa</t>
         </is>
       </c>
       <c r="G1217" t="inlineStr">
         <is>
-          <t>PEGAFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1217" t="n">
-        <v>2.5</v>
+        <v>29.9</v>
       </c>
       <c r="I1217" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="J1217" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1217" t="n">
         <v>1</v>
       </c>
       <c r="L1217" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="M1217" t="inlineStr">
         <is>
-          <t>130 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1217" t="n">
-        <v>1.923077</v>
+        <v>29.9</v>
       </c>
       <c r="P1217" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1218" t="n">
-        <v>23143</v>
+        <v>7672</v>
       </c>
       <c r="F1218" t="inlineStr">
         <is>
-          <t>Goma En Barra Ove 8 G</t>
+          <t>Calculadora Científica Casio Fx-82La Plus-2 Bu</t>
         </is>
       </c>
       <c r="G1218" t="inlineStr">
         <is>
-          <t>OVE</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1218" t="n">
-        <v>1.1</v>
+        <v>59.9</v>
       </c>
       <c r="I1218" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J1218" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1218" t="n">
         <v>1</v>
       </c>
       <c r="L1218" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M1218" t="inlineStr">
         <is>
-          <t>8 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1218" t="n">
-        <v>1.375</v>
+        <v>59.9</v>
       </c>
       <c r="P1218" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1219" t="n">
-        <v>29700</v>
+        <v>30568</v>
       </c>
       <c r="F1219" t="inlineStr">
         <is>
-          <t>Cola Vinifan 60 G</t>
+          <t>Calculadora Tipo Portátil Casio Hl-820Lv We Con Tapa</t>
         </is>
       </c>
       <c r="G1219" t="inlineStr">
         <is>
-          <t>VINIFAN</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>16.9</v>
       </c>
       <c r="I1219" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="J1219" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1219" t="n">
         <v>1</v>
       </c>
       <c r="L1219" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="M1219" t="inlineStr">
         <is>
-          <t>60 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1219" t="n">
-        <v>3.333333</v>
+        <v>16.9</v>
       </c>
       <c r="P1219" t="inlineStr">
         <is>
-          <t>adhesivo → por 100 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>escolar</t>
+          <t>universitario</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>cintas-y-pegamentos</t>
+          <t>otros</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr">
         <is>
-          <t>gomas-siliconas-y-colas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="D1220" t="inlineStr">
         <is>
-          <t>gomas</t>
+          <t>calculadoras</t>
         </is>
       </c>
       <c r="E1220" t="n">
-        <v>65702</v>
+        <v>30571</v>
       </c>
       <c r="F1220" t="inlineStr">
         <is>
-          <t>Goma En Barra Faber Castell Rosa Pastel 10 G</t>
+          <t>Calculadora De Escritorio Casio Mw-8V We</t>
         </is>
       </c>
       <c r="G1220" t="inlineStr">
         <is>
-          <t>FABER CASTELL</t>
+          <t>CASIO</t>
         </is>
       </c>
       <c r="H1220" t="n">
-        <v>1.6</v>
+        <v>27.9</v>
       </c>
       <c r="I1220" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J1220" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="K1220" t="n">
         <v>1</v>
       </c>
       <c r="L1220" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M1220" t="inlineStr">
         <is>
-          <t>10 g</t>
+          <t>Unidad</t>
         </is>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
-          <t>10g</t>
+          <t>und</t>
         </is>
       </c>
       <c r="O1220" t="n">
-        <v>1.6</v>
+        <v>27.9</v>
       </c>
       <c r="P1220" t="inlineStr">
         <is>
-          <t>goma en barra → por 10 g</t>
+          <t>Cantidad=1, sin conversión</t>
         </is>
       </c>
     </row>
@@ -85867,11 +85867,11 @@
         </is>
       </c>
       <c r="E1221" t="n">
-        <v>540</v>
+        <v>30572</v>
       </c>
       <c r="F1221" t="inlineStr">
         <is>
-          <t>Calculadora Casio Mx-12S 12 Dígitos</t>
+          <t>Calculadora Tipo Portátil Casio Lc-401Lv We-Bk-Dp</t>
         </is>
       </c>
       <c r="G1221" t="inlineStr">
@@ -85880,7 +85880,7 @@
         </is>
       </c>
       <c r="H1221" t="n">
-        <v>30.9</v>
+        <v>22.9</v>
       </c>
       <c r="I1221" t="n">
         <v>1</v>
@@ -85907,7 +85907,7 @@
         </is>
       </c>
       <c r="O1221" t="n">
-        <v>30.9</v>
+        <v>22.9</v>
       </c>
       <c r="P1221" t="inlineStr">
         <is>
@@ -85937,11 +85937,11 @@
         </is>
       </c>
       <c r="E1222" t="n">
-        <v>1003</v>
+        <v>1029</v>
       </c>
       <c r="F1222" t="inlineStr">
         <is>
-          <t>Calculadora Científica Casio Fx-82Ms-2</t>
+          <t>Calculadora De Escritorio Casio Ms-120Ms/Bm/Fm</t>
         </is>
       </c>
       <c r="G1222" t="inlineStr">
@@ -85950,7 +85950,7 @@
         </is>
       </c>
       <c r="H1222" t="n">
-        <v>53.9</v>
+        <v>57.9</v>
       </c>
       <c r="I1222" t="n">
         <v>1</v>
@@ -85977,7 +85977,7 @@
         </is>
       </c>
       <c r="O1222" t="n">
-        <v>53.9</v>
+        <v>57.9</v>
       </c>
       <c r="P1222" t="inlineStr">
         <is>
@@ -86007,11 +86007,11 @@
         </is>
       </c>
       <c r="E1223" t="n">
-        <v>1027</v>
+        <v>30551003</v>
       </c>
       <c r="F1223" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-80S/B/F</t>
+          <t>Calculadora Casio Hl-815L 8 Dígitos Rosado</t>
         </is>
       </c>
       <c r="G1223" t="inlineStr">
@@ -86020,7 +86020,7 @@
         </is>
       </c>
       <c r="H1223" t="n">
-        <v>42.9</v>
+        <v>16.9</v>
       </c>
       <c r="I1223" t="n">
         <v>1</v>
@@ -86047,7 +86047,7 @@
         </is>
       </c>
       <c r="O1223" t="n">
-        <v>42.9</v>
+        <v>16.9</v>
       </c>
       <c r="P1223" t="inlineStr">
         <is>
@@ -86077,11 +86077,11 @@
         </is>
       </c>
       <c r="E1224" t="n">
-        <v>4936</v>
+        <v>44595003</v>
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>Calculadora Casio Mx-8B 8 Dígitos</t>
+          <t>Calculadora Casio Ms-20Uc Verde</t>
         </is>
       </c>
       <c r="G1224" t="inlineStr">
@@ -86090,7 +86090,7 @@
         </is>
       </c>
       <c r="H1224" t="n">
-        <v>25.9</v>
+        <v>41.9</v>
       </c>
       <c r="I1224" t="n">
         <v>1</v>
@@ -86117,7 +86117,7 @@
         </is>
       </c>
       <c r="O1224" t="n">
-        <v>25.9</v>
+        <v>41.9</v>
       </c>
       <c r="P1224" t="inlineStr">
         <is>
@@ -86147,11 +86147,11 @@
         </is>
       </c>
       <c r="E1225" t="n">
-        <v>7674</v>
+        <v>924</v>
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>Calculadora Científica Casio Fx-991La Plus</t>
+          <t>Calculadora De Escritorio Casio Ms-100 Bm/Fm</t>
         </is>
       </c>
       <c r="G1225" t="inlineStr">
@@ -86160,7 +86160,7 @@
         </is>
       </c>
       <c r="H1225" t="n">
-        <v>110.9</v>
+        <v>50.9</v>
       </c>
       <c r="I1225" t="n">
         <v>1</v>
@@ -86187,7 +86187,7 @@
         </is>
       </c>
       <c r="O1225" t="n">
-        <v>110.9</v>
+        <v>50.9</v>
       </c>
       <c r="P1225" t="inlineStr">
         <is>
@@ -86217,11 +86217,11 @@
         </is>
       </c>
       <c r="E1226" t="n">
-        <v>44596001</v>
+        <v>936</v>
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-7Uc Azul</t>
+          <t>Calculadora Casio Hl-4 8 Dígitos</t>
         </is>
       </c>
       <c r="G1226" t="inlineStr">
@@ -86230,7 +86230,7 @@
         </is>
       </c>
       <c r="H1226" t="n">
-        <v>29.9</v>
+        <v>11.9</v>
       </c>
       <c r="I1226" t="n">
         <v>1</v>
@@ -86257,7 +86257,7 @@
         </is>
       </c>
       <c r="O1226" t="n">
-        <v>29.9</v>
+        <v>11.9</v>
       </c>
       <c r="P1226" t="inlineStr">
         <is>
@@ -86287,11 +86287,11 @@
         </is>
       </c>
       <c r="E1227" t="n">
-        <v>44596002</v>
+        <v>1198</v>
       </c>
       <c r="F1227" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-7Uc-Pk Rosa</t>
+          <t>Calculadora Casio Lc-160Lv 8 Dígitos</t>
         </is>
       </c>
       <c r="G1227" t="inlineStr">
@@ -86300,7 +86300,7 @@
         </is>
       </c>
       <c r="H1227" t="n">
-        <v>29.9</v>
+        <v>14.9</v>
       </c>
       <c r="I1227" t="n">
         <v>1</v>
@@ -86327,7 +86327,7 @@
         </is>
       </c>
       <c r="O1227" t="n">
-        <v>29.9</v>
+        <v>14.9</v>
       </c>
       <c r="P1227" t="inlineStr">
         <is>
@@ -86357,11 +86357,11 @@
         </is>
       </c>
       <c r="E1228" t="n">
-        <v>7672</v>
+        <v>4935</v>
       </c>
       <c r="F1228" t="inlineStr">
         <is>
-          <t>Calculadora Científica Casio Fx-82La Plus-2 Bu</t>
+          <t>Calculadora Casio Mw-8V 8 Dígitos</t>
         </is>
       </c>
       <c r="G1228" t="inlineStr">
@@ -86370,7 +86370,7 @@
         </is>
       </c>
       <c r="H1228" t="n">
-        <v>59.9</v>
+        <v>28.9</v>
       </c>
       <c r="I1228" t="n">
         <v>1</v>
@@ -86397,7 +86397,7 @@
         </is>
       </c>
       <c r="O1228" t="n">
-        <v>59.9</v>
+        <v>28.9</v>
       </c>
       <c r="P1228" t="inlineStr">
         <is>
@@ -86427,11 +86427,11 @@
         </is>
       </c>
       <c r="E1229" t="n">
-        <v>30568</v>
+        <v>30551001</v>
       </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>Calculadora Tipo Portátil Casio Hl-820Lv We Con Tapa</t>
+          <t>Calculadora Casio Hl-815L 8 Dígitos Wengue</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">
@@ -86497,11 +86497,11 @@
         </is>
       </c>
       <c r="E1230" t="n">
-        <v>30571</v>
+        <v>44595001</v>
       </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Mw-8V We</t>
+          <t>Calculadora De Escritorio Casio Ms-20Uc-Bu Azul</t>
         </is>
       </c>
       <c r="G1230" t="inlineStr">
@@ -86510,7 +86510,7 @@
         </is>
       </c>
       <c r="H1230" t="n">
-        <v>27.9</v>
+        <v>41.9</v>
       </c>
       <c r="I1230" t="n">
         <v>1</v>
@@ -86537,7 +86537,7 @@
         </is>
       </c>
       <c r="O1230" t="n">
-        <v>27.9</v>
+        <v>41.9</v>
       </c>
       <c r="P1230" t="inlineStr">
         <is>
@@ -86567,11 +86567,11 @@
         </is>
       </c>
       <c r="E1231" t="n">
-        <v>30572</v>
+        <v>44595002</v>
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>Calculadora Tipo Portátil Casio Lc-401Lv We-Bk-Dp</t>
+          <t>Calculadora Casio Ms-20Uc-Pk Rosa</t>
         </is>
       </c>
       <c r="G1231" t="inlineStr">
@@ -86580,7 +86580,7 @@
         </is>
       </c>
       <c r="H1231" t="n">
-        <v>22.9</v>
+        <v>41.9</v>
       </c>
       <c r="I1231" t="n">
         <v>1</v>
@@ -86607,7 +86607,7 @@
         </is>
       </c>
       <c r="O1231" t="n">
-        <v>22.9</v>
+        <v>41.9</v>
       </c>
       <c r="P1231" t="inlineStr">
         <is>
@@ -86637,11 +86637,11 @@
         </is>
       </c>
       <c r="E1232" t="n">
-        <v>1029</v>
+        <v>44595004</v>
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-120Ms/Bm/Fm</t>
+          <t>Calculadora Casio Ms-20Uc Verde Limón</t>
         </is>
       </c>
       <c r="G1232" t="inlineStr">
@@ -86650,7 +86650,7 @@
         </is>
       </c>
       <c r="H1232" t="n">
-        <v>57.9</v>
+        <v>41.9</v>
       </c>
       <c r="I1232" t="n">
         <v>1</v>
@@ -86677,7 +86677,7 @@
         </is>
       </c>
       <c r="O1232" t="n">
-        <v>57.9</v>
+        <v>41.9</v>
       </c>
       <c r="P1232" t="inlineStr">
         <is>
@@ -86707,11 +86707,11 @@
         </is>
       </c>
       <c r="E1233" t="n">
-        <v>30551003</v>
+        <v>44596003</v>
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>Calculadora Casio Hl-815L 8 Dígitos Rosado</t>
+          <t>Calculadora Casio Ms-7Uc Verde Limón</t>
         </is>
       </c>
       <c r="G1233" t="inlineStr">
@@ -86720,7 +86720,7 @@
         </is>
       </c>
       <c r="H1233" t="n">
-        <v>16.9</v>
+        <v>29.9</v>
       </c>
       <c r="I1233" t="n">
         <v>1</v>
@@ -86747,7 +86747,7 @@
         </is>
       </c>
       <c r="O1233" t="n">
-        <v>16.9</v>
+        <v>29.9</v>
       </c>
       <c r="P1233" t="inlineStr">
         <is>
@@ -86777,11 +86777,11 @@
         </is>
       </c>
       <c r="E1234" t="n">
-        <v>44595003</v>
+        <v>30567</v>
       </c>
       <c r="F1234" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-20Uc Verde</t>
+          <t>Calculadora De Escritorio Casio Mx-12S Blanco</t>
         </is>
       </c>
       <c r="G1234" t="inlineStr">
@@ -86790,7 +86790,7 @@
         </is>
       </c>
       <c r="H1234" t="n">
-        <v>41.9</v>
+        <v>30.9</v>
       </c>
       <c r="I1234" t="n">
         <v>1</v>
@@ -86817,7 +86817,7 @@
         </is>
       </c>
       <c r="O1234" t="n">
-        <v>41.9</v>
+        <v>30.9</v>
       </c>
       <c r="P1234" t="inlineStr">
         <is>
@@ -86847,11 +86847,11 @@
         </is>
       </c>
       <c r="E1235" t="n">
-        <v>924</v>
+        <v>3100</v>
       </c>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-100 Bm/Fm</t>
+          <t>Calculadora Tipo Portátil Casio Sx-300 Con Funda</t>
         </is>
       </c>
       <c r="G1235" t="inlineStr">
@@ -86860,7 +86860,7 @@
         </is>
       </c>
       <c r="H1235" t="n">
-        <v>50.9</v>
+        <v>21.9</v>
       </c>
       <c r="I1235" t="n">
         <v>1</v>
@@ -86887,7 +86887,7 @@
         </is>
       </c>
       <c r="O1235" t="n">
-        <v>50.9</v>
+        <v>21.9</v>
       </c>
       <c r="P1235" t="inlineStr">
         <is>
@@ -86917,11 +86917,11 @@
         </is>
       </c>
       <c r="E1236" t="n">
-        <v>936</v>
+        <v>7673</v>
       </c>
       <c r="F1236" t="inlineStr">
         <is>
-          <t>Calculadora Casio Hl-4 8 Dígitos</t>
+          <t>Calculadora Científica Casio Fx-95Es Plus</t>
         </is>
       </c>
       <c r="G1236" t="inlineStr">
@@ -86930,7 +86930,7 @@
         </is>
       </c>
       <c r="H1236" t="n">
-        <v>11.9</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I1236" t="n">
         <v>1</v>
@@ -86957,7 +86957,7 @@
         </is>
       </c>
       <c r="O1236" t="n">
-        <v>11.9</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="P1236" t="inlineStr">
         <is>
@@ -86987,11 +86987,11 @@
         </is>
       </c>
       <c r="E1237" t="n">
-        <v>1198</v>
+        <v>955</v>
       </c>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>Calculadora Casio Lc-160Lv 8 Dígitos</t>
+          <t>Calculadora Casio Hl-815L 8 Dígitos</t>
         </is>
       </c>
       <c r="G1237" t="inlineStr">
@@ -87000,7 +87000,7 @@
         </is>
       </c>
       <c r="H1237" t="n">
-        <v>14.9</v>
+        <v>16.9</v>
       </c>
       <c r="I1237" t="n">
         <v>1</v>
@@ -87027,7 +87027,7 @@
         </is>
       </c>
       <c r="O1237" t="n">
-        <v>14.9</v>
+        <v>16.9</v>
       </c>
       <c r="P1237" t="inlineStr">
         <is>
@@ -87057,11 +87057,11 @@
         </is>
       </c>
       <c r="E1238" t="n">
-        <v>4935</v>
+        <v>1001</v>
       </c>
       <c r="F1238" t="inlineStr">
         <is>
-          <t>Calculadora Casio Mw-8V 8 Dígitos</t>
+          <t>Calculadora De Escritorio Casio Ms-10S/Ms-10B/F -W</t>
         </is>
       </c>
       <c r="G1238" t="inlineStr">
@@ -87070,7 +87070,7 @@
         </is>
       </c>
       <c r="H1238" t="n">
-        <v>28.9</v>
+        <v>42.9</v>
       </c>
       <c r="I1238" t="n">
         <v>1</v>
@@ -87097,7 +87097,7 @@
         </is>
       </c>
       <c r="O1238" t="n">
-        <v>28.9</v>
+        <v>42.9</v>
       </c>
       <c r="P1238" t="inlineStr">
         <is>
@@ -87127,11 +87127,11 @@
         </is>
       </c>
       <c r="E1239" t="n">
-        <v>30551001</v>
+        <v>1691</v>
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>Calculadora Casio Hl-815L 8 Dígitos Wengue</t>
+          <t>Calculadora Casio Mx-120 S (B) 12 Dígitos</t>
         </is>
       </c>
       <c r="G1239" t="inlineStr">
@@ -87140,7 +87140,7 @@
         </is>
       </c>
       <c r="H1239" t="n">
-        <v>16.9</v>
+        <v>33.9</v>
       </c>
       <c r="I1239" t="n">
         <v>1</v>
@@ -87167,7 +87167,7 @@
         </is>
       </c>
       <c r="O1239" t="n">
-        <v>16.9</v>
+        <v>33.9</v>
       </c>
       <c r="P1239" t="inlineStr">
         <is>
@@ -87197,11 +87197,11 @@
         </is>
       </c>
       <c r="E1240" t="n">
-        <v>44595001</v>
+        <v>30551002</v>
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Ms-20Uc-Bu Azul</t>
+          <t>Calculadora Tipo Portátil Casio Hl-815L Bu</t>
         </is>
       </c>
       <c r="G1240" t="inlineStr">
@@ -87210,7 +87210,7 @@
         </is>
       </c>
       <c r="H1240" t="n">
-        <v>41.9</v>
+        <v>16.9</v>
       </c>
       <c r="I1240" t="n">
         <v>1</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="O1240" t="n">
-        <v>41.9</v>
+        <v>16.9</v>
       </c>
       <c r="P1240" t="inlineStr">
         <is>
@@ -87267,11 +87267,11 @@
         </is>
       </c>
       <c r="E1241" t="n">
-        <v>44595002</v>
+        <v>4624</v>
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-20Uc-Pk Rosa</t>
+          <t>Calculadora Científica Casio Fx-350Es Plus</t>
         </is>
       </c>
       <c r="G1241" t="inlineStr">
@@ -87280,7 +87280,7 @@
         </is>
       </c>
       <c r="H1241" t="n">
-        <v>41.9</v>
+        <v>61.9</v>
       </c>
       <c r="I1241" t="n">
         <v>1</v>
@@ -87307,7 +87307,7 @@
         </is>
       </c>
       <c r="O1241" t="n">
-        <v>41.9</v>
+        <v>61.9</v>
       </c>
       <c r="P1241" t="inlineStr">
         <is>
@@ -87337,11 +87337,11 @@
         </is>
       </c>
       <c r="E1242" t="n">
-        <v>44595004</v>
+        <v>5245</v>
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-20Uc Verde Limón</t>
+          <t>Calculadora De Escritorio Casio Mw-5V Bk</t>
         </is>
       </c>
       <c r="G1242" t="inlineStr">
@@ -87350,7 +87350,7 @@
         </is>
       </c>
       <c r="H1242" t="n">
-        <v>41.9</v>
+        <v>25.9</v>
       </c>
       <c r="I1242" t="n">
         <v>1</v>
@@ -87377,7 +87377,7 @@
         </is>
       </c>
       <c r="O1242" t="n">
-        <v>41.9</v>
+        <v>25.9</v>
       </c>
       <c r="P1242" t="inlineStr">
         <is>
@@ -87407,11 +87407,11 @@
         </is>
       </c>
       <c r="E1243" t="n">
-        <v>44596003</v>
+        <v>816</v>
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>Calculadora Casio Ms-7Uc Verde Limón</t>
+          <t>Calculadora De Escritorio Casio Ms-8S / Ms-8B/8F</t>
         </is>
       </c>
       <c r="G1243" t="inlineStr">
@@ -87420,7 +87420,7 @@
         </is>
       </c>
       <c r="H1243" t="n">
-        <v>29.9</v>
+        <v>35.9</v>
       </c>
       <c r="I1243" t="n">
         <v>1</v>
@@ -87447,7 +87447,7 @@
         </is>
       </c>
       <c r="O1243" t="n">
-        <v>29.9</v>
+        <v>35.9</v>
       </c>
       <c r="P1243" t="inlineStr">
         <is>
@@ -87477,11 +87477,11 @@
         </is>
       </c>
       <c r="E1244" t="n">
-        <v>30567</v>
+        <v>954</v>
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>Calculadora De Escritorio Casio Mx-12S Blanco</t>
+          <t>Calculadora Tipo Portátil Casio Hl-820Lv Con Tapa</t>
         </is>
       </c>
       <c r="G1244" t="inlineStr">
@@ -87490,7 +87490,7 @@
         </is>
       </c>
       <c r="H1244" t="n">
-        <v>30.9</v>
+        <v>16.9</v>
       </c>
       <c r="I1244" t="n">
         <v>1</v>
@@ -87517,709 +87517,9 @@
         </is>
       </c>
       <c r="O1244" t="n">
-        <v>30.9</v>
+        <v>16.9</v>
       </c>
       <c r="P1244" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1245" t="n">
-        <v>3100</v>
-      </c>
-      <c r="F1245" t="inlineStr">
-        <is>
-          <t>Calculadora Tipo Portátil Casio Sx-300 Con Funda</t>
-        </is>
-      </c>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1245" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="I1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1245" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1245" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1245" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1245" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="P1245" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1246" t="n">
-        <v>7673</v>
-      </c>
-      <c r="F1246" t="inlineStr">
-        <is>
-          <t>Calculadora Científica Casio Fx-95Es Plus</t>
-        </is>
-      </c>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1246" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="I1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1246" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1246" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1246" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1246" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="P1246" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1247" t="n">
-        <v>955</v>
-      </c>
-      <c r="F1247" t="inlineStr">
-        <is>
-          <t>Calculadora Casio Hl-815L 8 Dígitos</t>
-        </is>
-      </c>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1247" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1247" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1247" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1247" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1247" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P1247" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1248" t="n">
-        <v>1001</v>
-      </c>
-      <c r="F1248" t="inlineStr">
-        <is>
-          <t>Calculadora De Escritorio Casio Ms-10S/Ms-10B/F -W</t>
-        </is>
-      </c>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1248" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1248" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1248" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1248" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1248" t="n">
-        <v>42.9</v>
-      </c>
-      <c r="P1248" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1249" t="n">
-        <v>1691</v>
-      </c>
-      <c r="F1249" t="inlineStr">
-        <is>
-          <t>Calculadora Casio Mx-120 S (B) 12 Dígitos</t>
-        </is>
-      </c>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1249" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="I1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1249" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1249" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1249" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1249" t="n">
-        <v>33.9</v>
-      </c>
-      <c r="P1249" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1250" t="n">
-        <v>30551002</v>
-      </c>
-      <c r="F1250" t="inlineStr">
-        <is>
-          <t>Calculadora Tipo Portátil Casio Hl-815L Bu</t>
-        </is>
-      </c>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1250" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="I1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1250" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1250" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1250" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1250" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P1250" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1251" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1251" t="n">
-        <v>4624</v>
-      </c>
-      <c r="F1251" t="inlineStr">
-        <is>
-          <t>Calculadora Científica Casio Fx-350Es Plus</t>
-        </is>
-      </c>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1251" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="I1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1251" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1251" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1251" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1251" t="n">
-        <v>61.9</v>
-      </c>
-      <c r="P1251" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1252" t="n">
-        <v>5245</v>
-      </c>
-      <c r="F1252" t="inlineStr">
-        <is>
-          <t>Calculadora De Escritorio Casio Mw-5V Bk</t>
-        </is>
-      </c>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1252" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="I1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1252" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1252" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1252" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1252" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="P1252" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1253" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1253" t="n">
-        <v>816</v>
-      </c>
-      <c r="F1253" t="inlineStr">
-        <is>
-          <t>Calculadora De Escritorio Casio Ms-8S / Ms-8B/8F</t>
-        </is>
-      </c>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1253" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="I1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1253" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1253" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1253" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1253" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="P1253" t="inlineStr">
-        <is>
-          <t>Cantidad=1, sin conversión</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>universitario</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>otros</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="D1254" t="inlineStr">
-        <is>
-          <t>calculadoras</t>
-        </is>
-      </c>
-      <c r="E1254" t="n">
-        <v>954</v>
-      </c>
-      <c r="F1254" t="inlineStr">
-        <is>
-          <t>Calculadora Tipo Portátil Casio Hl-820Lv Con Tapa</t>
-        </is>
-      </c>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>CASIO</t>
-        </is>
-      </c>
-      <c r="H1254" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="I1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="J1254" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="K1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="L1254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1254" t="inlineStr">
-        <is>
-          <t>Unidad</t>
-        </is>
-      </c>
-      <c r="N1254" t="inlineStr">
-        <is>
-          <t>und</t>
-        </is>
-      </c>
-      <c r="O1254" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="P1254" t="inlineStr">
         <is>
           <t>Cantidad=1, sin conversión</t>
         </is>
